--- a/outputs/recommended_class_plan.xlsx
+++ b/outputs/recommended_class_plan.xlsx
@@ -11,6 +11,8 @@
     <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="FA 25" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="SP 25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FA 26" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SP 26" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +433,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -452,42 +454,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CPSC 6179</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CPSC 6175</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CPSC 6177</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CPSC 6109</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CPSC 6127</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>CPSC 6119</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CYBR 6126</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>CPSC 6185</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CYBR 6126</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CPSC 6127</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CPSC 6177</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CPSC 6109</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>CPSC 6179</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>CPSC 6175</t>
         </is>
       </c>
     </row>
@@ -521,22 +523,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>CPSC 6179</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CPSC 6185</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>CYBR 6126</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>CPSC 6119</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>CPSC 6179</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CPSC 6185</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -563,7 +565,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Completed courses scheduled again: ['CPSC 6119', 'CPSC 6185', 'CYBR 6126', 'CPSC 6127', 'CPSC 6177', 'CPSC 6109', 'CPSC 6179', 'CPSC 6175']</t>
+          <t>Completed courses scheduled again: ['CPSC 6179', 'CPSC 6175', 'CPSC 6177', 'CPSC 6109', 'CPSC 6119', 'CYBR 6126', 'CPSC 6185', 'CPSC 6127']</t>
         </is>
       </c>
     </row>
@@ -596,7 +598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,26 +645,6 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CYBR 6126</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CPSC 6119</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -720,10 +702,92 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>CYBR 6126</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Credit Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CPSC 6119</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Credit Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>CPSC 6127</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B2" t="n">
         <v>3</v>
       </c>
     </row>

--- a/outputs/recommended_class_plan.xlsx
+++ b/outputs/recommended_class_plan.xlsx
@@ -11,8 +11,6 @@
     <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="FA 25" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="SP 25" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="FA 26" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SP 26" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +431,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -454,42 +452,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CPSC 6185</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>CPSC 6179</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CYBR 6126</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CPSC 6109</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CPSC 6119</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>CPSC 6175</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>CPSC 6177</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CPSC 6109</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>CPSC 6127</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CPSC 6119</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>CYBR 6126</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>CPSC 6185</t>
         </is>
       </c>
     </row>
@@ -523,22 +521,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>CYBR 6126</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CPSC 6119</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>CPSC 6179</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>CPSC 6185</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>CYBR 6126</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CPSC 6119</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -565,7 +563,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Completed courses scheduled again: ['CPSC 6179', 'CPSC 6175', 'CPSC 6177', 'CPSC 6109', 'CPSC 6119', 'CYBR 6126', 'CPSC 6185', 'CPSC 6127']</t>
+          <t>Completed courses scheduled again: ['CPSC 6185', 'CPSC 6179', 'CYBR 6126', 'CPSC 6109', 'CPSC 6119', 'CPSC 6175', 'CPSC 6177', 'CPSC 6127']</t>
         </is>
       </c>
     </row>
@@ -598,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +643,26 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CYBR 6126</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CPSC 6119</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -702,92 +720,10 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CYBR 6126</t>
+          <t>CPSC 6127</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Credit Hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CPSC 6119</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Credit Hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CPSC 6127</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
         <v>3</v>
       </c>
     </row>

--- a/outputs/recommended_class_plan.xlsx
+++ b/outputs/recommended_class_plan.xlsx
@@ -452,19 +452,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CPSC 6179</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CYBR 6126</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>CPSC 6185</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CPSC 6179</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CYBR 6126</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>CPSC 6109</t>
@@ -472,22 +472,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>CPSC 6177</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CPSC 6175</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CPSC 6127</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>CPSC 6119</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CPSC 6175</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>CPSC 6177</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>CPSC 6127</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Completed courses scheduled again: ['CPSC 6185', 'CPSC 6179', 'CYBR 6126', 'CPSC 6109', 'CPSC 6119', 'CPSC 6175', 'CPSC 6177', 'CPSC 6127']</t>
+          <t>Completed courses scheduled again: ['CPSC 6179', 'CYBR 6126', 'CPSC 6185', 'CPSC 6177', 'CPSC 6175', 'CPSC 6127', 'CPSC 6109', 'CPSC 6119']</t>
         </is>
       </c>
     </row>
